--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
   <si>
     <t>序号</t>
   </si>
@@ -51,6 +51,45 @@
     <t>登陆</t>
   </si>
   <si>
+    <t>无用户名登陆</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>-&gt;123456</t>
+  </si>
+  <si>
+    <t>css:div.el-form-item__error:text</t>
+  </si>
+  <si>
+    <t>相等</t>
+  </si>
+  <si>
+    <t>账号不能为空</t>
+  </si>
+  <si>
+    <t>提示：账号不能为空</t>
+  </si>
+  <si>
+    <t>无用户无密码</t>
+  </si>
+  <si>
+    <t>提示:账号不能为空</t>
+  </si>
+  <si>
+    <t>无密码登陆</t>
+  </si>
+  <si>
+    <t>admin-&gt;</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>提示：密码不能为空</t>
+  </si>
+  <si>
     <t>正常登陆</t>
   </si>
   <si>
@@ -60,9 +99,6 @@
     <t>xpath://*[@id="app"]/div/section/header/div[3]/div[2]:text</t>
   </si>
   <si>
-    <t>相等</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -372,9 +408,6 @@
     <t>地图配置修改地图</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>E:\\Webdriver_auto\\photograph\\Map.png</t>
   </si>
   <si>
@@ -451,39 +484,6 @@
   </si>
   <si>
     <t>进入地图操作成功</t>
-  </si>
-  <si>
-    <t>无用户名登陆</t>
-  </si>
-  <si>
-    <t>-&gt;123456</t>
-  </si>
-  <si>
-    <t>css:div.el-form-item__error:text</t>
-  </si>
-  <si>
-    <t>账号不能为空</t>
-  </si>
-  <si>
-    <t>提示：账号不能为空</t>
-  </si>
-  <si>
-    <t>无用户无密码</t>
-  </si>
-  <si>
-    <t>提示:账号不能为空</t>
-  </si>
-  <si>
-    <t>无密码登陆</t>
-  </si>
-  <si>
-    <t>admin-&gt;</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>提示：密码不能为空</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1464,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1475,8 +1475,8 @@
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="23.3333333333333" customWidth="1"/>
     <col min="3" max="4" width="19.025" customWidth="1"/>
-    <col min="5" max="5" width="63.1916666666667" customWidth="1"/>
-    <col min="6" max="6" width="72.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="44.3" customWidth="1"/>
+    <col min="6" max="6" width="89.1666666666667" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
     <col min="9" max="9" width="19.125" customWidth="1"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1524,175 +1524,184 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" t="s">
         <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
         <v>39</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>43</v>
@@ -1703,7 +1712,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -1715,7 +1724,7 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
         <v>47</v>
@@ -1726,7 +1735,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -1738,7 +1747,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
@@ -1749,7 +1758,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -1761,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>55</v>
@@ -1772,7 +1781,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -1784,7 +1793,7 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -1795,7 +1804,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -1807,7 +1816,7 @@
         <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
@@ -1818,7 +1827,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -1830,7 +1839,7 @@
         <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>67</v>
@@ -1841,45 +1850,42 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
         <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
         <v>75</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -1899,21 +1905,21 @@
         <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -1922,125 +1928,128 @@
         <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
         <v>87</v>
       </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>100</v>
@@ -2051,7 +2060,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>102</v>
@@ -2063,7 +2072,7 @@
         <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
         <v>104</v>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -2086,7 +2095,7 @@
         <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
         <v>108</v>
@@ -2097,91 +2106,88 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
         <v>118</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>119</v>
       </c>
-      <c r="F29" t="s">
-        <v>114</v>
-      </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
         <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
         <v>123</v>
@@ -2192,7 +2198,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>125</v>
@@ -2204,7 +2210,7 @@
         <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
         <v>127</v>
@@ -2215,7 +2221,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>129</v>
@@ -2223,109 +2229,184 @@
       <c r="C32" t="s">
         <v>129</v>
       </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" t="s">
         <v>131</v>
-      </c>
-      <c r="I32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
         <v>134</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>135</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>138</v>
+        <v>15</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
-      </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" t="s">
-        <v>144</v>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>154</v>
+      </c>
+      <c r="I39" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2422,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A1" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2354,25 +2435,25 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2383,19 +2464,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2406,23 +2487,23 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28305" windowHeight="7785"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,16 +453,16 @@
     <t>报警记录主页</t>
   </si>
   <si>
+    <t>xpath://*[text()='报警类型：']:text</t>
+  </si>
+  <si>
+    <t>报警类型：</t>
+  </si>
+  <si>
+    <t>进入报警记录成功</t>
+  </si>
+  <si>
     <t>报警记录</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='报警类型：']:text</t>
-  </si>
-  <si>
-    <t>报警类型：</t>
-  </si>
-  <si>
-    <t>进入报警记录成功</t>
   </si>
   <si>
     <t>报警统计</t>
@@ -1466,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2325,19 +2325,19 @@
         <v>144</v>
       </c>
       <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
         <v>145</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
         <v>146</v>
       </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>147</v>
-      </c>
-      <c r="I36" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2345,22 +2345,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
         <v>146</v>
       </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>147</v>
-      </c>
-      <c r="I37" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2394,7 +2394,7 @@
         <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
         <v>153</v>

--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -63,55 +63,58 @@
     <t>css:div.el-form-item__error:text</t>
   </si>
   <si>
+    <t>不相等</t>
+  </si>
+  <si>
+    <t>账号不能为空</t>
+  </si>
+  <si>
+    <t>提示：账号不能为空</t>
+  </si>
+  <si>
+    <t>无用户无密码</t>
+  </si>
+  <si>
+    <t>提示:账号不能为空</t>
+  </si>
+  <si>
+    <t>无密码登陆</t>
+  </si>
+  <si>
+    <t>admin-&gt;</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>提示：密码不能为空</t>
+  </si>
+  <si>
+    <t>正常登陆</t>
+  </si>
+  <si>
+    <t>admin-&gt;123456</t>
+  </si>
+  <si>
+    <t>xpath://*[@id="app"]/div/section/header/div[3]/div[2]:text</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>登陆成功</t>
+  </si>
+  <si>
+    <t>参数配置</t>
+  </si>
+  <si>
+    <t>进入参数配置页面</t>
+  </si>
+  <si>
+    <t>xpath://*[text()='基本参数配置']:text</t>
+  </si>
+  <si>
     <t>相等</t>
-  </si>
-  <si>
-    <t>账号不能为空</t>
-  </si>
-  <si>
-    <t>提示：账号不能为空</t>
-  </si>
-  <si>
-    <t>无用户无密码</t>
-  </si>
-  <si>
-    <t>提示:账号不能为空</t>
-  </si>
-  <si>
-    <t>无密码登陆</t>
-  </si>
-  <si>
-    <t>admin-&gt;</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>提示：密码不能为空</t>
-  </si>
-  <si>
-    <t>正常登陆</t>
-  </si>
-  <si>
-    <t>admin-&gt;123456</t>
-  </si>
-  <si>
-    <t>xpath://*[@id="app"]/div/section/header/div[3]/div[2]:text</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>登陆成功</t>
-  </si>
-  <si>
-    <t>参数配置</t>
-  </si>
-  <si>
-    <t>进入参数配置页面</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='基本参数配置']:text</t>
   </si>
   <si>
     <t>基本参数配置</t>
@@ -1467,7 +1470,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1632,13 +1635,13 @@
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1646,22 +1649,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1669,22 +1672,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1692,22 +1695,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1715,22 +1718,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1738,22 +1741,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1761,22 +1764,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1784,22 +1787,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1807,22 +1810,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1830,22 +1833,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1853,22 +1856,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1876,22 +1879,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1899,22 +1902,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1922,22 +1925,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1945,25 +1948,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1971,22 +1974,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1994,22 +1997,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2017,22 +2020,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I23" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2040,22 +2043,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2063,22 +2066,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2086,22 +2089,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2109,22 +2112,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2132,22 +2135,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2155,22 +2158,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2178,22 +2181,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2201,22 +2204,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2224,28 +2227,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2253,22 +2256,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2276,22 +2279,22 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2299,22 +2302,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2322,22 +2325,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2345,22 +2348,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" t="s">
         <v>148</v>
-      </c>
-      <c r="C37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2368,22 +2371,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" t="s">
         <v>150</v>
       </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>149</v>
-      </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2391,22 +2394,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2450,7 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
@@ -2470,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2497,7 +2500,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>

--- a/test_case/case.xlsx
+++ b/test_case/case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="157">
   <si>
     <t>序号</t>
   </si>
@@ -51,442 +51,442 @@
     <t>登陆</t>
   </si>
   <si>
+    <t>正常登陆</t>
+  </si>
+  <si>
+    <t>admin-&gt;123456</t>
+  </si>
+  <si>
+    <t>xpath%//*[@id="app"]/div/section/header/div[3]/div[2]%text</t>
+  </si>
+  <si>
+    <t>相等</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>登陆成功</t>
+  </si>
+  <si>
+    <t>参数配置</t>
+  </si>
+  <si>
+    <t>进入参数配置页面</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='基本参数配置']%text</t>
+  </si>
+  <si>
+    <t>基本参数配置</t>
+  </si>
+  <si>
+    <t>进入参数配置页面成功</t>
+  </si>
+  <si>
+    <t>光缆长度自动获取</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='周界起点，请输入非负整数']%text</t>
+  </si>
+  <si>
+    <t>周界起点，请输入非负整数</t>
+  </si>
+  <si>
+    <t>光缆长度不在范围内提示%周界起点，请输入非负整数成功</t>
+  </si>
+  <si>
+    <t>xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[5]/div/input%value</t>
+  </si>
+  <si>
+    <t>小于,大于</t>
+  </si>
+  <si>
+    <t>5345%5335</t>
+  </si>
+  <si>
+    <t>光缆长度获取成功</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='防区参数']%text</t>
+  </si>
+  <si>
+    <t>防区参数</t>
+  </si>
+  <si>
+    <t>进入基本参数配置成功</t>
+  </si>
+  <si>
+    <t>报警参数配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='基本参数']%text</t>
+  </si>
+  <si>
+    <t>基本参数</t>
+  </si>
+  <si>
+    <t>进入报警参数配置成功</t>
+  </si>
+  <si>
+    <t>通道详情</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='时域']%text</t>
+  </si>
+  <si>
+    <t>时域</t>
+  </si>
+  <si>
+    <t>进入通道详情成功</t>
+  </si>
+  <si>
+    <t>阈值配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='阈值选择%']%text</t>
+  </si>
+  <si>
+    <t>阈值选择%</t>
+  </si>
+  <si>
+    <t>进入阈值配置成功</t>
+  </si>
+  <si>
+    <t>算法配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='断纤参数']%text</t>
+  </si>
+  <si>
+    <t>断纤参数</t>
+  </si>
+  <si>
+    <t>进入算法配置成功</t>
+  </si>
+  <si>
+    <t>方案配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='参数']%text</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>进入方案配置成功</t>
+  </si>
+  <si>
+    <t>屏蔽区域配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='屏蔽区域']%text</t>
+  </si>
+  <si>
+    <t>屏蔽区域</t>
+  </si>
+  <si>
+    <t>进入屏蔽区域配置成功</t>
+  </si>
+  <si>
+    <t>瀑布图</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='对比度%']%text</t>
+  </si>
+  <si>
+    <t>对比度%</t>
+  </si>
+  <si>
+    <t>进入瀑布图成功</t>
+  </si>
+  <si>
+    <t>调试配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='数据保存']%text</t>
+  </si>
+  <si>
+    <t>数据保存</t>
+  </si>
+  <si>
+    <t>进入调试配置成功</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='用户管理']%text</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>进入系统配置成功</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='角色']%text</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>进入用户管理成功</t>
+  </si>
+  <si>
+    <t>用户管理增加用户</t>
+  </si>
+  <si>
+    <t>123321-&gt;123456-&gt;123456-&gt;aabb-&gt;13566778899</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='操作成功']%text</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>添加用户成功</t>
+  </si>
+  <si>
+    <t>用户管理删除用户</t>
+  </si>
+  <si>
+    <t>删除用户成功</t>
+  </si>
+  <si>
+    <t>基本配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='本机网络']%text</t>
+  </si>
+  <si>
+    <t>本机网络</t>
+  </si>
+  <si>
+    <t>进入基本配置成功</t>
+  </si>
+  <si>
+    <t>外接设备配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='设备列表']%text</t>
+  </si>
+  <si>
+    <t>设备列表</t>
+  </si>
+  <si>
+    <t>进入外接设备配置成功</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='设备类型']%text</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>进入设备列表成功</t>
+  </si>
+  <si>
+    <t>输出列表</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='输出类型']%text</t>
+  </si>
+  <si>
+    <t>输出类型</t>
+  </si>
+  <si>
+    <t>进入输出列表成功</t>
+  </si>
+  <si>
+    <t>防区配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='定时计划']%text</t>
+  </si>
+  <si>
+    <t>定时计划</t>
+  </si>
+  <si>
+    <t>进入防区配置成功</t>
+  </si>
+  <si>
+    <t>防区初始化</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启环网模式']%text</t>
+  </si>
+  <si>
+    <t>开启环网模式</t>
+  </si>
+  <si>
+    <t>进入防区初始化成功</t>
+  </si>
+  <si>
+    <t>防区列表</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='布防']%text</t>
+  </si>
+  <si>
+    <t>布防</t>
+  </si>
+  <si>
+    <t>进入防区列表成功</t>
+  </si>
+  <si>
+    <t>联动输出</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='批量添加']%text</t>
+  </si>
+  <si>
+    <t>批量添加</t>
+  </si>
+  <si>
+    <t>进入联动输出成功</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='防区号']%text</t>
+  </si>
+  <si>
+    <t>防区号</t>
+  </si>
+  <si>
+    <t>进入定时计划成功</t>
+  </si>
+  <si>
+    <t>地图配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='修改地图']%text</t>
+  </si>
+  <si>
+    <t>修改地图</t>
+  </si>
+  <si>
+    <t>进入地图配置成功</t>
+  </si>
+  <si>
+    <t>地图配置修改地图</t>
+  </si>
+  <si>
+    <t>E%\\Webdriver_auto\\photograph\\Map.png</t>
+  </si>
+  <si>
+    <t>修改地图成功</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='操作时间']%text</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>进入操作日志成功</t>
+  </si>
+  <si>
+    <t>升级&amp;维护</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='维护']%text</t>
+  </si>
+  <si>
+    <t>维护</t>
+  </si>
+  <si>
+    <t>进入升级&amp;维护成功</t>
+  </si>
+  <si>
+    <t>版本信息</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='硬件版本号%']%text</t>
+  </si>
+  <si>
+    <t>硬件版本号%</t>
+  </si>
+  <si>
+    <t>进入版本信息成功</t>
+  </si>
+  <si>
+    <t>报警记录主页</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='报警类型%']%text</t>
+  </si>
+  <si>
+    <t>报警类型%</t>
+  </si>
+  <si>
+    <t>进入报警记录成功</t>
+  </si>
+  <si>
+    <t>报警记录</t>
+  </si>
+  <si>
+    <t>报警统计</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='报警统计']%text</t>
+  </si>
+  <si>
+    <t>进入报警统计成功</t>
+  </si>
+  <si>
+    <t>地图操作</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='全部布防']%text</t>
+  </si>
+  <si>
+    <t>全部布防</t>
+  </si>
+  <si>
+    <t>进入地图操作成功</t>
+  </si>
+  <si>
     <t>无用户名登陆</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>-&gt;123456</t>
   </si>
   <si>
     <t>css:div.el-form-item__error:text</t>
   </si>
   <si>
+    <t>账号不能为空</t>
+  </si>
+  <si>
+    <t>提示：账号不能为空</t>
+  </si>
+  <si>
+    <t>无用户无密码</t>
+  </si>
+  <si>
+    <t>提示:账号不能为空</t>
+  </si>
+  <si>
+    <t>无密码登陆</t>
+  </si>
+  <si>
+    <t>admin-&gt;</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>提示：密码不能为空</t>
+  </si>
+  <si>
     <t>不相等</t>
-  </si>
-  <si>
-    <t>账号不能为空</t>
-  </si>
-  <si>
-    <t>提示：账号不能为空</t>
-  </si>
-  <si>
-    <t>无用户无密码</t>
-  </si>
-  <si>
-    <t>提示:账号不能为空</t>
-  </si>
-  <si>
-    <t>无密码登陆</t>
-  </si>
-  <si>
-    <t>admin-&gt;</t>
-  </si>
-  <si>
-    <t>密码不能为空</t>
-  </si>
-  <si>
-    <t>提示：密码不能为空</t>
-  </si>
-  <si>
-    <t>正常登陆</t>
-  </si>
-  <si>
-    <t>admin-&gt;123456</t>
-  </si>
-  <si>
-    <t>xpath://*[@id="app"]/div/section/header/div[3]/div[2]:text</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>登陆成功</t>
-  </si>
-  <si>
-    <t>参数配置</t>
-  </si>
-  <si>
-    <t>进入参数配置页面</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='基本参数配置']:text</t>
-  </si>
-  <si>
-    <t>相等</t>
-  </si>
-  <si>
-    <t>基本参数配置</t>
-  </si>
-  <si>
-    <t>进入参数配置页面成功</t>
-  </si>
-  <si>
-    <t>光缆长度自动获取</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='周界起点，请输入非负整数']:text</t>
-  </si>
-  <si>
-    <t>周界起点，请输入非负整数</t>
-  </si>
-  <si>
-    <t>光缆长度不在范围内提示：周界起点，请输入非负整数成功</t>
-  </si>
-  <si>
-    <t>xpath://*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[5]/div/input:value</t>
-  </si>
-  <si>
-    <t>小于,大于</t>
-  </si>
-  <si>
-    <t>5345:5335</t>
-  </si>
-  <si>
-    <t>光缆长度获取成功</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='防区参数']:text</t>
-  </si>
-  <si>
-    <t>防区参数</t>
-  </si>
-  <si>
-    <t>进入基本参数配置成功</t>
-  </si>
-  <si>
-    <t>报警参数配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='基本参数']:text</t>
-  </si>
-  <si>
-    <t>基本参数</t>
-  </si>
-  <si>
-    <t>进入报警参数配置成功</t>
-  </si>
-  <si>
-    <t>通道详情</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='时域']:text</t>
-  </si>
-  <si>
-    <t>时域</t>
-  </si>
-  <si>
-    <t>进入通道详情成功</t>
-  </si>
-  <si>
-    <t>阈值配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='阈值选择：']:text</t>
-  </si>
-  <si>
-    <t>阈值选择：</t>
-  </si>
-  <si>
-    <t>进入阈值配置成功</t>
-  </si>
-  <si>
-    <t>算法配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='断纤参数']:text</t>
-  </si>
-  <si>
-    <t>断纤参数</t>
-  </si>
-  <si>
-    <t>进入算法配置成功</t>
-  </si>
-  <si>
-    <t>方案配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='参数']:text</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>进入方案配置成功</t>
-  </si>
-  <si>
-    <t>屏蔽区域配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='屏蔽区域']:text</t>
-  </si>
-  <si>
-    <t>屏蔽区域</t>
-  </si>
-  <si>
-    <t>进入屏蔽区域配置成功</t>
-  </si>
-  <si>
-    <t>瀑布图</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='对比度：']:text</t>
-  </si>
-  <si>
-    <t>对比度：</t>
-  </si>
-  <si>
-    <t>进入瀑布图成功</t>
-  </si>
-  <si>
-    <t>调试配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='数据保存']:text</t>
-  </si>
-  <si>
-    <t>数据保存</t>
-  </si>
-  <si>
-    <t>进入调试配置成功</t>
-  </si>
-  <si>
-    <t>系统配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='用户管理']:text</t>
-  </si>
-  <si>
-    <t>用户管理</t>
-  </si>
-  <si>
-    <t>进入系统配置成功</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='角色']:text</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>进入用户管理成功</t>
-  </si>
-  <si>
-    <t>用户管理增加用户</t>
-  </si>
-  <si>
-    <t>123321-&gt;123456-&gt;123456-&gt;aabb-&gt;13566778899</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='操作成功']:text</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>添加用户成功</t>
-  </si>
-  <si>
-    <t>用户管理删除用户</t>
-  </si>
-  <si>
-    <t>删除用户成功</t>
-  </si>
-  <si>
-    <t>基本配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='本机网络']:text</t>
-  </si>
-  <si>
-    <t>本机网络</t>
-  </si>
-  <si>
-    <t>进入基本配置成功</t>
-  </si>
-  <si>
-    <t>外接设备配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='设备列表']:text</t>
-  </si>
-  <si>
-    <t>设备列表</t>
-  </si>
-  <si>
-    <t>进入外接设备配置成功</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='设备类型']:text</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>进入设备列表成功</t>
-  </si>
-  <si>
-    <t>输出列表</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='输出类型']:text</t>
-  </si>
-  <si>
-    <t>输出类型</t>
-  </si>
-  <si>
-    <t>进入输出列表成功</t>
-  </si>
-  <si>
-    <t>防区配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='定时计划']:text</t>
-  </si>
-  <si>
-    <t>定时计划</t>
-  </si>
-  <si>
-    <t>进入防区配置成功</t>
-  </si>
-  <si>
-    <t>防区初始化</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='开启环网模式']:text</t>
-  </si>
-  <si>
-    <t>开启环网模式</t>
-  </si>
-  <si>
-    <t>进入防区初始化成功</t>
-  </si>
-  <si>
-    <t>防区列表</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='布防']:text</t>
-  </si>
-  <si>
-    <t>布防</t>
-  </si>
-  <si>
-    <t>进入防区列表成功</t>
-  </si>
-  <si>
-    <t>联动输出</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='批量添加']:text</t>
-  </si>
-  <si>
-    <t>批量添加</t>
-  </si>
-  <si>
-    <t>进入联动输出成功</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='防区号']:text</t>
-  </si>
-  <si>
-    <t>防区号</t>
-  </si>
-  <si>
-    <t>进入定时计划成功</t>
-  </si>
-  <si>
-    <t>地图配置</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='修改地图']:text</t>
-  </si>
-  <si>
-    <t>修改地图</t>
-  </si>
-  <si>
-    <t>进入地图配置成功</t>
-  </si>
-  <si>
-    <t>地图配置修改地图</t>
-  </si>
-  <si>
-    <t>E:\\Webdriver_auto\\photograph\\Map.png</t>
-  </si>
-  <si>
-    <t>修改地图成功</t>
-  </si>
-  <si>
-    <t>操作日志</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='操作时间']:text</t>
-  </si>
-  <si>
-    <t>操作时间</t>
-  </si>
-  <si>
-    <t>进入操作日志成功</t>
-  </si>
-  <si>
-    <t>升级&amp;维护</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='维护']:text</t>
-  </si>
-  <si>
-    <t>维护</t>
-  </si>
-  <si>
-    <t>进入升级&amp;维护成功</t>
-  </si>
-  <si>
-    <t>版本信息</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='硬件版本号：']:text</t>
-  </si>
-  <si>
-    <t>硬件版本号：</t>
-  </si>
-  <si>
-    <t>进入版本信息成功</t>
-  </si>
-  <si>
-    <t>报警记录主页</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='报警类型：']:text</t>
-  </si>
-  <si>
-    <t>报警类型：</t>
-  </si>
-  <si>
-    <t>进入报警记录成功</t>
-  </si>
-  <si>
-    <t>报警记录</t>
-  </si>
-  <si>
-    <t>报警统计</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='报警统计']:text</t>
-  </si>
-  <si>
-    <t>进入报警统计成功</t>
-  </si>
-  <si>
-    <t>地图操作</t>
-  </si>
-  <si>
-    <t>xpath://*[text()='全部布防']:text</t>
-  </si>
-  <si>
-    <t>全部布防</t>
-  </si>
-  <si>
-    <t>进入地图操作成功</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +524,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -547,29 +569,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,6 +584,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,17 +614,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,24 +644,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,13 +658,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -668,6 +668,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -675,180 +849,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,47 +862,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,6 +904,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -951,11 +930,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,133 +979,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1467,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1527,23 +1527,20 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1551,22 +1548,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1574,25 +1571,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1600,25 +1594,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1626,22 +1617,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1652,19 +1643,19 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1672,22 +1663,26 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
         <v>39</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1695,16 +1690,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -1727,7 +1722,7 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>48</v>
@@ -1750,7 +1745,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>52</v>
@@ -1773,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
         <v>56</v>
@@ -1796,7 +1791,7 @@
         <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -1819,7 +1814,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
         <v>64</v>
@@ -1842,7 +1837,7 @@
         <v>67</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>68</v>
@@ -1856,22 +1851,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1879,16 +1874,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
       </c>
       <c r="F17" t="s">
         <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
@@ -1908,16 +1906,16 @@
         <v>78</v>
       </c>
       <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1931,16 +1929,16 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
         <v>82</v>
       </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>83</v>
-      </c>
-      <c r="I19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1948,25 +1946,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1974,22 +1969,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
         <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1997,22 +1992,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="G22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2020,22 +2015,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
         <v>97</v>
       </c>
-      <c r="G23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>98</v>
-      </c>
-      <c r="I23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2043,16 +2038,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
         <v>101</v>
@@ -2075,7 +2070,7 @@
         <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
         <v>105</v>
@@ -2098,7 +2093,7 @@
         <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
         <v>109</v>
@@ -2112,22 +2107,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
         <v>111</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
         <v>112</v>
       </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>113</v>
-      </c>
-      <c r="I27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2135,22 +2130,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
         <v>116</v>
       </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>117</v>
-      </c>
-      <c r="I28" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2158,22 +2153,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
         <v>119</v>
       </c>
-      <c r="C29" t="s">
-        <v>119</v>
-      </c>
       <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
         <v>120</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2181,22 +2182,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
         <v>123</v>
       </c>
-      <c r="G30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>124</v>
-      </c>
-      <c r="I30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2204,22 +2205,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" t="s">
         <v>126</v>
       </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
         <v>127</v>
       </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>128</v>
-      </c>
-      <c r="I31" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2227,25 +2228,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" t="s">
         <v>130</v>
       </c>
-      <c r="C32" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F32" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" t="s">
-        <v>128</v>
       </c>
       <c r="I32" t="s">
         <v>132</v>
@@ -2265,7 +2260,7 @@
         <v>134</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
         <v>135</v>
@@ -2285,16 +2280,16 @@
         <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2302,22 +2297,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>143</v>
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2325,91 +2320,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s">
-        <v>155</v>
-      </c>
-      <c r="I39" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2422,13 +2348,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J3"/>
+      <selection activeCell="A7" sqref="A7:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
@@ -2438,25 +2364,25 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2467,19 +2393,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2490,23 +2416,100 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3"/>
+        <v>152</v>
+      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
